--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="504" windowWidth="28044" windowHeight="15900"/>
+    <workbookView minimized="1" xWindow="384" yWindow="504" windowWidth="28044" windowHeight="15900" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:E10"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -617,7 +617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
